--- a/sample.xlsx
+++ b/sample.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\03_Codes\02_codable_2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\03_Codes\02_codable_2021\backend\Model_eval\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F92E19E-7FAA-45FD-8E5A-17A29B122BB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24EC6B9F-CA47-4994-B8A0-A5ED0BD2316C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43305" yWindow="5790" windowWidth="7500" windowHeight="10920" xr2:uid="{8F02783A-375E-47CC-A77A-545D5F11E97A}"/>
+    <workbookView xWindow="15960" yWindow="5520" windowWidth="16200" windowHeight="16665" xr2:uid="{8F02783A-375E-47CC-A77A-545D5F11E97A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,13 +35,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>sim</t>
+    <t>Date</t>
   </si>
   <si>
-    <t>obs</t>
+    <t>Measurement</t>
   </si>
   <si>
-    <t>Date</t>
+    <t>Simulation</t>
   </si>
 </sst>
 </file>
@@ -397,7 +397,7 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -407,13 +407,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
